--- a/gui/produkty.xlsx
+++ b/gui/produkty.xlsx
@@ -1,19 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaud\OneDrive\Pulpit\gui\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8589E9E7-7334-4544-A1FB-D256E7FA86D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="9670" yWindow="560" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,67 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Id(kod kreskowy)</t>
-  </si>
-  <si>
-    <t>piwo Żywiec</t>
-  </si>
-  <si>
-    <t>waga butelki [g]</t>
-  </si>
-  <si>
-    <t>Pojemnosc [l]</t>
-  </si>
-  <si>
-    <t>piwo Tyskie</t>
-  </si>
-  <si>
-    <t>piwo Lech Premium</t>
-  </si>
-  <si>
-    <t>piwo Heineken</t>
-  </si>
-  <si>
-    <t>wódka Wyborowa</t>
-  </si>
-  <si>
-    <t>wódka Finlandia</t>
-  </si>
-  <si>
-    <t>wódka Żubrówka  biała</t>
-  </si>
-  <si>
-    <t>wódka Belvedere</t>
-  </si>
-  <si>
-    <t>whisky Johnnie Walker Red</t>
-  </si>
-  <si>
-    <t>whisky Ballantine’s</t>
-  </si>
-  <si>
-    <t>whisky Jameson</t>
-  </si>
-  <si>
-    <t>gin Bombay Sapphire</t>
-  </si>
-  <si>
-    <t>gin Beefeater</t>
-  </si>
-  <si>
-    <t>gin Tanqueray</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,12 +49,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,233 +330,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>5901359000537</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>5901359072145</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>5901359112568</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>5901359000568</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5900334000153</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6412700021527</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-      <c r="D7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>5900343005060</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>5900041001044</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.7</v>
-      </c>
-      <c r="D9">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>5000267014204</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>0.7</v>
-      </c>
-      <c r="D10">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>5000299601125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0.7</v>
-      </c>
-      <c r="D11">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>5011007003008</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>0.7</v>
-      </c>
-      <c r="D12">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>5010677714002</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>0.7</v>
-      </c>
-      <c r="D13">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>5000329003013</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>0.7</v>
-      </c>
-      <c r="D14">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>5000281015241</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>0.7</v>
-      </c>
-      <c r="D15">
-        <v>600</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gui/produkty.xlsx
+++ b/gui/produkty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaud\OneDrive\Pulpit\gui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaud\OneDrive\Pulpit\projekt\Projekt-skaner-\gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8589E9E7-7334-4544-A1FB-D256E7FA86D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB98183F-49FA-4EF3-BE4E-53E24EDBBB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9670" yWindow="560" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="14400" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Id(kod kreskowy)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>piwo Żywiec</t>
   </si>
   <si>
-    <t>waga butelki [g]</t>
-  </si>
-  <si>
-    <t>Pojemnosc [l]</t>
-  </si>
-  <si>
     <t>piwo Tyskie</t>
   </si>
   <si>
@@ -79,14 +67,52 @@
   </si>
   <si>
     <t>gin Tanqueray</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAZWA PRODUKTU</t>
+  </si>
+  <si>
+    <t>POJEMNOŚĆ</t>
+  </si>
+  <si>
+    <t>WAGA BUTELKI</t>
+  </si>
+  <si>
+    <t>DATA DODANIA DO BAZY</t>
+  </si>
+  <si>
+    <t>7630040403665</t>
+  </si>
+  <si>
+    <t>0,75</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>0% Martini Vibrante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,9 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -397,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,28 +439,32 @@
     <col min="2" max="2" width="42.81640625" customWidth="1"/>
     <col min="3" max="3" width="13.90625" customWidth="1"/>
     <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>5901359000537</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -438,13 +472,16 @@
       <c r="D2">
         <v>350</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="3">
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>5901359072145</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -452,13 +489,16 @@
       <c r="D3">
         <v>350</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="3">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>5901359112568</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -466,13 +506,16 @@
       <c r="D4">
         <v>350</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="3">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5901359000568</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -480,13 +523,16 @@
       <c r="D5">
         <v>350</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="3">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5900334000153</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -494,13 +540,16 @@
       <c r="D6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" s="3">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6412700021527</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0.7</v>
@@ -508,13 +557,16 @@
       <c r="D7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="3">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5900343005060</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -522,13 +574,16 @@
       <c r="D8">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="3">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5900041001044</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0.7</v>
@@ -536,13 +591,16 @@
       <c r="D9">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="3">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5000267014204</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0.7</v>
@@ -550,13 +608,16 @@
       <c r="D10">
         <v>700</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" s="3">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5000299601125</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0.7</v>
@@ -564,13 +625,16 @@
       <c r="D11">
         <v>600</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="3">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>5011007003008</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0.7</v>
@@ -578,13 +642,16 @@
       <c r="D12">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" s="3">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5010677714002</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>0.7</v>
@@ -592,13 +659,16 @@
       <c r="D13">
         <v>600</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="3">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>5000329003013</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>0.7</v>
@@ -606,19 +676,42 @@
       <c r="D14">
         <v>600</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="3">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>5000281015241</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>0.7</v>
       </c>
       <c r="D15">
         <v>600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45812</v>
       </c>
     </row>
   </sheetData>

--- a/gui/produkty.xlsx
+++ b/gui/produkty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaud\OneDrive\Pulpit\projekt\Projekt-skaner-\gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB98183F-49FA-4EF3-BE4E-53E24EDBBB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE9BCF6-5216-4D80-B527-466C8142FAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="14400" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,7 +511,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5901359000568</v>
       </c>
       <c r="B5" t="s">
@@ -528,7 +528,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5900334000153</v>
       </c>
       <c r="B6" t="s">
@@ -545,7 +545,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6412700021527</v>
       </c>
       <c r="B7" t="s">
@@ -562,7 +562,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>5900343005060</v>
       </c>
       <c r="B8" t="s">
@@ -579,7 +579,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>5900041001044</v>
       </c>
       <c r="B9" t="s">
@@ -596,7 +596,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>5000267014204</v>
       </c>
       <c r="B10" t="s">
@@ -613,7 +613,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>5000299601125</v>
       </c>
       <c r="B11" t="s">
@@ -647,7 +647,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>5010677714002</v>
       </c>
       <c r="B13" t="s">
@@ -664,7 +664,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>5000329003013</v>
       </c>
       <c r="B14" t="s">
@@ -681,7 +681,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>5000281015241</v>
       </c>
       <c r="B15" t="s">
@@ -698,7 +698,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">

--- a/gui/produkty.xlsx
+++ b/gui/produkty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaud\OneDrive\Pulpit\projekt\Projekt-skaner-\gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE9BCF6-5216-4D80-B527-466C8142FAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E780882-DBA0-4868-8CE7-F6BF6B38848B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
